--- a/data/trans_orig/Q5405-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3619</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1644</v>
+        <v>954</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8957</v>
+        <v>8961</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02805353019712373</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0127460406947181</v>
+        <v>0.007393929933777701</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06943981647714563</v>
+        <v>0.06946891761389833</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -765,19 +765,19 @@
         <v>12351</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6451</v>
+        <v>6566</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21633</v>
+        <v>21767</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04537455580369342</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02369846758718851</v>
+        <v>0.02411930113270446</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0794708952062318</v>
+        <v>0.07996172256420392</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -786,19 +786,19 @@
         <v>15970</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9170</v>
+        <v>9439</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25997</v>
+        <v>26318</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03980567538035809</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02285593665919542</v>
+        <v>0.02352674843360825</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06479849979235312</v>
+        <v>0.06559687796792152</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>7051</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13401</v>
+        <v>13472</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05466547708724388</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02671441949404901</v>
+        <v>0.0267366085600343</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1038946036997291</v>
+        <v>0.1044383417798256</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -836,19 +836,19 @@
         <v>10149</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5320</v>
+        <v>4868</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18056</v>
+        <v>18368</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03728233133996185</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01954251088142142</v>
+        <v>0.01788246162458357</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06633019395938676</v>
+        <v>0.06747847357348809</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -857,19 +857,19 @@
         <v>17200</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10348</v>
+        <v>10487</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25898</v>
+        <v>26179</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0428711840007019</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02579125051538662</v>
+        <v>0.02613943889975193</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06455181404678281</v>
+        <v>0.06525066761892699</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>118321</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>111349</v>
+        <v>110745</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>122928</v>
+        <v>122856</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9172809927156323</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8632324144411805</v>
+        <v>0.8585472256733586</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9529938609939768</v>
+        <v>0.9524347855751639</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>244</v>
@@ -907,19 +907,19 @@
         <v>249712</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>238135</v>
+        <v>239376</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>257343</v>
+        <v>257419</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9173431128563447</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8748133314928197</v>
+        <v>0.8793722307976723</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9453760302976972</v>
+        <v>0.9456550909080017</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>371</v>
@@ -928,19 +928,19 @@
         <v>368033</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>354840</v>
+        <v>354896</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>377810</v>
+        <v>377556</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.91732314061894</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8844409152373481</v>
+        <v>0.8845803971213781</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9416918147360877</v>
+        <v>0.94105974949742</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9124</v>
+        <v>8257</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01077247204615274</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05613008113755323</v>
+        <v>0.05079389942694486</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5747</v>
+        <v>5495</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.005627316788724217</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02822516260180137</v>
+        <v>0.02698827264474693</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10910</v>
+        <v>10162</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007911535492955474</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02979535578069861</v>
+        <v>0.02775404890229263</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>7265</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3623</v>
+        <v>3535</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13917</v>
+        <v>14638</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04469401288441111</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02228768484582777</v>
+        <v>0.02174345785618719</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0856133139867112</v>
+        <v>0.09005246027367533</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1124,19 +1124,19 @@
         <v>5347</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1984</v>
+        <v>2027</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11692</v>
+        <v>12179</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.026261323011851</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009744787774546132</v>
+        <v>0.00995657174093441</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05742947712394594</v>
+        <v>0.05981733668190713</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>13</v>
@@ -1145,19 +1145,19 @@
         <v>12612</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6794</v>
+        <v>7046</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20044</v>
+        <v>21092</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03444461250839363</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01855527679957103</v>
+        <v>0.0192431912052957</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05474272508278381</v>
+        <v>0.05760391287138343</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>153539</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>144868</v>
+        <v>145915</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>158018</v>
+        <v>158037</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9445335150694362</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.891194149339656</v>
+        <v>0.8976320661012041</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9720912928353681</v>
+        <v>0.9722043882498899</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>194</v>
@@ -1195,19 +1195,19 @@
         <v>197105</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>190392</v>
+        <v>189904</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>201288</v>
+        <v>201263</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9681113601994248</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9351399578385171</v>
+        <v>0.9327429001405186</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9886578630169214</v>
+        <v>0.9885374789853175</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>356</v>
@@ -1216,19 +1216,19 @@
         <v>350644</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>340688</v>
+        <v>340730</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>357020</v>
+        <v>356764</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9576438519986509</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9304525002142683</v>
+        <v>0.930567094989715</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9750575152381988</v>
+        <v>0.9743566737653226</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5779</v>
+        <v>4548</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006947260082577809</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03988069961619496</v>
+        <v>0.03138042086717165</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1341,19 +1341,19 @@
         <v>4574</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1114</v>
+        <v>1240</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10448</v>
+        <v>10887</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03131734094745916</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007625217707808932</v>
+        <v>0.008488138339258676</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07153182436300391</v>
+        <v>0.07453520149752821</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1362,19 +1362,19 @@
         <v>5581</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2059</v>
+        <v>2151</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13255</v>
+        <v>12512</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01918049054687536</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007075788404523101</v>
+        <v>0.007392058950738971</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04555329892774492</v>
+        <v>0.04300012607423696</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>4586</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1610</v>
+        <v>1674</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10082</v>
+        <v>9340</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03164802632999997</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01110784679019128</v>
+        <v>0.01154945298303004</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06957096800247313</v>
+        <v>0.06445107898177746</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7969</v>
+        <v>7937</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01553899427659833</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0545586477403383</v>
+        <v>0.05434119309980436</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1433,19 +1433,19 @@
         <v>6856</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3057</v>
+        <v>2893</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13723</v>
+        <v>13497</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02356165588426209</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01050734661136806</v>
+        <v>0.009943789942380304</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04716053360308925</v>
+        <v>0.0463853568610534</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>139323</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>133240</v>
+        <v>133387</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>143064</v>
+        <v>142985</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9614047135874222</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.919428043965368</v>
+        <v>0.9204410223123941</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9872222648724762</v>
+        <v>0.9866765145911879</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>134</v>
@@ -1483,19 +1483,19 @@
         <v>139223</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>132065</v>
+        <v>132169</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>143750</v>
+        <v>143670</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9531436647759425</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9041376797631799</v>
+        <v>0.9048493867370075</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9841375400906714</v>
+        <v>0.9835885724814418</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>272</v>
@@ -1504,19 +1504,19 @@
         <v>278547</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>268972</v>
+        <v>269933</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>284362</v>
+        <v>284581</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9572578535688625</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9243517610906598</v>
+        <v>0.9276567539739418</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9772433385477034</v>
+        <v>0.9779968313505174</v>
       </c>
     </row>
     <row r="15">
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4761</v>
+        <v>6227</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02683340125040422</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1213445155949316</v>
+        <v>0.158703080598468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4687</v>
+        <v>5938</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01188582978647378</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05291583218577806</v>
+        <v>0.06704094002778234</v>
       </c>
     </row>
     <row r="17">
@@ -1731,7 +1731,7 @@
         <v>38182</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>34474</v>
+        <v>33008</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>39235</v>
@@ -1740,7 +1740,7 @@
         <v>0.9731665987495958</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8786554844050761</v>
+        <v>0.8412969194015316</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>87523</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>83889</v>
+        <v>82638</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>88576</v>
@@ -1761,7 +1761,7 @@
         <v>0.9881141702135262</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9470841678142243</v>
+        <v>0.932959059972218</v>
       </c>
       <c r="W18" s="6" t="n">
         <v>1</v>
@@ -1856,19 +1856,19 @@
         <v>6377</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2668</v>
+        <v>2598</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13977</v>
+        <v>14153</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01312574463905272</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005491882804906478</v>
+        <v>0.005347743268163344</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0287714719771818</v>
+        <v>0.02913363041025086</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -1877,19 +1877,19 @@
         <v>19124</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11719</v>
+        <v>11267</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30492</v>
+        <v>29587</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02892773067345943</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01772667738671034</v>
+        <v>0.01704185958065233</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04612260199933887</v>
+        <v>0.04475296579953891</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -1898,19 +1898,19 @@
         <v>25501</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16827</v>
+        <v>16943</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>38189</v>
+        <v>38750</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02223441427358148</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01467128536460079</v>
+        <v>0.01477253895349515</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03329681292849031</v>
+        <v>0.03378605288190778</v>
       </c>
     </row>
     <row r="21">
@@ -1927,19 +1927,19 @@
         <v>18903</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11715</v>
+        <v>11621</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28476</v>
+        <v>28130</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03891056406425528</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02411547423503605</v>
+        <v>0.02392190121785934</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05861704212787164</v>
+        <v>0.05790340669021451</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -1948,19 +1948,19 @@
         <v>17765</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10230</v>
+        <v>10575</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>28065</v>
+        <v>27088</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0268716807382094</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01547345049574105</v>
+        <v>0.01599633537796585</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04245113418201785</v>
+        <v>0.04097338999431046</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>39</v>
@@ -1969,19 +1969,19 @@
         <v>36668</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>25748</v>
+        <v>26193</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>49446</v>
+        <v>48894</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03197104325042702</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02244957398244335</v>
+        <v>0.02283787984005742</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04311225165986034</v>
+        <v>0.04263073632723369</v>
       </c>
     </row>
     <row r="22">
@@ -1998,19 +1998,19 @@
         <v>460525</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>450258</v>
+        <v>449130</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>468555</v>
+        <v>468833</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.947963691296692</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9268296548950834</v>
+        <v>0.9245093944095053</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9644949045418547</v>
+        <v>0.9650658275273819</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>610</v>
@@ -2019,19 +2019,19 @@
         <v>624222</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>610419</v>
+        <v>611078</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>635831</v>
+        <v>635496</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9442005885883311</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9233212467328317</v>
+        <v>0.9243181812253115</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9617601669142509</v>
+        <v>0.9612535633564764</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1089</v>
@@ -2040,19 +2040,19 @@
         <v>1084747</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1064732</v>
+        <v>1069243</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1097520</v>
+        <v>1098627</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9457945424759915</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9283434046839313</v>
+        <v>0.9322768411869369</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9569315121936861</v>
+        <v>0.9578970332100494</v>
       </c>
     </row>
     <row r="23">
@@ -2384,19 +2384,19 @@
         <v>8468</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4031</v>
+        <v>3206</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16135</v>
+        <v>15581</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06156762420351839</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02930629336529591</v>
+        <v>0.02331234669426369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1173205959569567</v>
+        <v>0.1132901454781335</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -2405,19 +2405,19 @@
         <v>14095</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7729</v>
+        <v>7644</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23532</v>
+        <v>23057</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0653665776213973</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03584542738224161</v>
+        <v>0.03544752775202656</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1091286503419328</v>
+        <v>0.106928369498864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -2426,19 +2426,19 @@
         <v>22563</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14853</v>
+        <v>14575</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33624</v>
+        <v>33273</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06388715901448863</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04205553002545702</v>
+        <v>0.0412693985323107</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09520599203743756</v>
+        <v>0.09421267554913754</v>
       </c>
     </row>
     <row r="5">
@@ -2455,19 +2455,19 @@
         <v>11916</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5860</v>
+        <v>6467</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21560</v>
+        <v>20938</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08664013688433991</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04260471417716259</v>
+        <v>0.04702468820080331</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.156760480085977</v>
+        <v>0.1522363484494423</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -2476,19 +2476,19 @@
         <v>16324</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9637</v>
+        <v>9693</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24862</v>
+        <v>26208</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07570334730350765</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04469055535163381</v>
+        <v>0.04495335080926983</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1152986552365005</v>
+        <v>0.1215392150102423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -2497,19 +2497,19 @@
         <v>28240</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19469</v>
+        <v>19223</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40442</v>
+        <v>40698</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07996243874947806</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05512656455740741</v>
+        <v>0.054429576398656</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1145126837421558</v>
+        <v>0.1152383333253322</v>
       </c>
     </row>
     <row r="6">
@@ -2526,19 +2526,19 @@
         <v>117150</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>106789</v>
+        <v>108342</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>124770</v>
+        <v>125651</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8517922389121417</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7764580897957496</v>
+        <v>0.7877525363934131</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9071997505264946</v>
+        <v>0.9136046177001178</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -2547,19 +2547,19 @@
         <v>185215</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>174124</v>
+        <v>174165</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>194906</v>
+        <v>195244</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.858930075075095</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8074974012545708</v>
+        <v>0.8076893125608393</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9038749567928283</v>
+        <v>0.9054435152961243</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>278</v>
@@ -2568,19 +2568,19 @@
         <v>302364</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>288514</v>
+        <v>287988</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>315359</v>
+        <v>315563</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8561504022360333</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8169336319598822</v>
+        <v>0.8154454565943804</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8929459756470117</v>
+        <v>0.8935232054011579</v>
       </c>
     </row>
     <row r="7">
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6376</v>
+        <v>6629</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01191270283392615</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03697082138974678</v>
+        <v>0.03843433348948044</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -2693,19 +2693,19 @@
         <v>9776</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4311</v>
+        <v>4411</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17223</v>
+        <v>18270</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0395699206704532</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01744946966670426</v>
+        <v>0.01785202296260865</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06970837876442088</v>
+        <v>0.07394626675622924</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -2714,19 +2714,19 @@
         <v>11831</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6410</v>
+        <v>6269</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20844</v>
+        <v>20385</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02820015269413699</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01527887960513877</v>
+        <v>0.01494178028385577</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04968451059455155</v>
+        <v>0.04858941077728472</v>
       </c>
     </row>
     <row r="9">
@@ -2743,19 +2743,19 @@
         <v>12997</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6506</v>
+        <v>6997</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23272</v>
+        <v>23674</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07535521357064219</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03772442212258099</v>
+        <v>0.04056789211517788</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1349311947231944</v>
+        <v>0.1372641938009751</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -2764,19 +2764,19 @@
         <v>13462</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7273</v>
+        <v>7256</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21916</v>
+        <v>21643</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05448538770457421</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02943668022022632</v>
+        <v>0.02936935572409193</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0887065100997904</v>
+        <v>0.08759962333415537</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>23</v>
@@ -2785,19 +2785,19 @@
         <v>26458</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>17623</v>
+        <v>16261</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40234</v>
+        <v>38336</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06306488688651765</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04200679322222654</v>
+        <v>0.03875993086554418</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09590025803844449</v>
+        <v>0.09137823406008459</v>
       </c>
     </row>
     <row r="10">
@@ -2814,19 +2814,19 @@
         <v>157419</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>145884</v>
+        <v>146997</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>163926</v>
+        <v>163894</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9127320835954317</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8458538890046279</v>
+        <v>0.8523071906887943</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9504591249922774</v>
+        <v>0.9502745755864427</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>214</v>
@@ -2835,19 +2835,19 @@
         <v>223829</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>214032</v>
+        <v>212137</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>233161</v>
+        <v>231441</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9059446916249726</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.866293285181805</v>
+        <v>0.8586211178823848</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9437156502932411</v>
+        <v>0.9367553355501043</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>359</v>
@@ -2856,19 +2856,19 @@
         <v>381247</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>366698</v>
+        <v>368441</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>392708</v>
+        <v>393493</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9087349604193453</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.874057116086523</v>
+        <v>0.878211290522379</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9360541754895318</v>
+        <v>0.937923800895712</v>
       </c>
     </row>
     <row r="11">
@@ -2960,19 +2960,19 @@
         <v>7655</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3144</v>
+        <v>3107</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14696</v>
+        <v>14988</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04604787374808456</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01891382980277516</v>
+        <v>0.01869264189160873</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08840280244580587</v>
+        <v>0.09016031066591003</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -2981,19 +2981,19 @@
         <v>5294</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1101</v>
+        <v>1115</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12889</v>
+        <v>14463</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02756179887758355</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005730568704597092</v>
+        <v>0.00580586968986599</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06710575727080965</v>
+        <v>0.07529787500659592</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -3002,19 +3002,19 @@
         <v>12949</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6757</v>
+        <v>6391</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22636</v>
+        <v>21952</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03613835880926476</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01885705542217664</v>
+        <v>0.01783754698397653</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06317637212608958</v>
+        <v>0.06126468514211432</v>
       </c>
     </row>
     <row r="13">
@@ -3031,19 +3031,19 @@
         <v>11550</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5410</v>
+        <v>6184</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21333</v>
+        <v>21552</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06947770884901874</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03254415818659928</v>
+        <v>0.03720081950162749</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1283292940517634</v>
+        <v>0.1296495162789959</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -3052,19 +3052,19 @@
         <v>8419</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4114</v>
+        <v>3539</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15889</v>
+        <v>15575</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04383115820275404</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02141964577614821</v>
+        <v>0.01842477167518499</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08272719469289058</v>
+        <v>0.08108893985183614</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -3073,19 +3073,19 @@
         <v>19968</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12543</v>
+        <v>11928</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31946</v>
+        <v>30998</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05572979975859804</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03500675780536451</v>
+        <v>0.03328860181357379</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08915816023226811</v>
+        <v>0.08651159503730005</v>
       </c>
     </row>
     <row r="14">
@@ -3102,19 +3102,19 @@
         <v>147031</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>136126</v>
+        <v>136537</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>154703</v>
+        <v>154559</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8844744174028967</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8188790698232674</v>
+        <v>0.8213466996121637</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9306275868970415</v>
+        <v>0.9297649108295029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>167</v>
@@ -3123,19 +3123,19 @@
         <v>178358</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>167560</v>
+        <v>168390</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>184144</v>
+        <v>184799</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9286070429196625</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8723869422323274</v>
+        <v>0.8767076796689728</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.958730195133332</v>
+        <v>0.9621411336894927</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>301</v>
@@ -3144,19 +3144,19 @@
         <v>325389</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>310619</v>
+        <v>311967</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>335643</v>
+        <v>336266</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9081318414321372</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8669101385062205</v>
+        <v>0.8706710918440874</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9367484447062582</v>
+        <v>0.9384894173596443</v>
       </c>
     </row>
     <row r="15">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5109</v>
+        <v>5102</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01321746199640529</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06541277240868623</v>
+        <v>0.06532447397740447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6830</v>
+        <v>7659</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02621535437683424</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08030472267390058</v>
+        <v>0.0900533679508267</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -3290,19 +3290,19 @@
         <v>3262</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8879</v>
+        <v>8780</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01999339460504422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006290909758412864</v>
+        <v>0.006271280688476343</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05442450671716392</v>
+        <v>0.05381448661784786</v>
       </c>
     </row>
     <row r="17">
@@ -3332,19 +3332,19 @@
         <v>6546</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2397</v>
+        <v>2278</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13601</v>
+        <v>13688</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07696657548797239</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02818726942183978</v>
+        <v>0.02678315399297073</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1599125398733081</v>
+        <v>0.1609425069426406</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -3353,19 +3353,19 @@
         <v>6546</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2252</v>
+        <v>3055</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13263</v>
+        <v>13868</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04012345335382837</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01380524609620523</v>
+        <v>0.01872523977616428</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08129370531004877</v>
+        <v>0.08500512559886281</v>
       </c>
     </row>
     <row r="18">
@@ -3382,7 +3382,7 @@
         <v>77065</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>72988</v>
+        <v>72995</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>78097</v>
@@ -3391,7 +3391,7 @@
         <v>0.9867825380035947</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.934587227591315</v>
+        <v>0.9346755260225961</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -3403,19 +3403,19 @@
         <v>76274</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>69163</v>
+        <v>69026</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>80669</v>
+        <v>80834</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8968180701351933</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8132023750351959</v>
+        <v>0.8115938743255933</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9484882282584469</v>
+        <v>0.9504326732991971</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>134</v>
@@ -3424,19 +3424,19 @@
         <v>153338</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>145848</v>
+        <v>145475</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>158766</v>
+        <v>158773</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9398831520411274</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8939747819703637</v>
+        <v>0.8916839678444058</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.973151459644065</v>
+        <v>0.9731971083469374</v>
       </c>
     </row>
     <row r="19">
@@ -3528,19 +3528,19 @@
         <v>19209</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11587</v>
+        <v>11487</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28536</v>
+        <v>29217</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03465267967963893</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02090238502253232</v>
+        <v>0.02072167284157838</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0514785453716541</v>
+        <v>0.05270654106662022</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -3549,19 +3549,19 @@
         <v>31395</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20652</v>
+        <v>21177</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>45357</v>
+        <v>44013</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0424360395696055</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02791447489483025</v>
+        <v>0.02862510703530661</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06130818188248708</v>
+        <v>0.0594915429001623</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -3570,19 +3570,19 @@
         <v>50604</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>37184</v>
+        <v>37702</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>66395</v>
+        <v>66223</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03910214144983761</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02873228705396669</v>
+        <v>0.02913285636981705</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05130371300522446</v>
+        <v>0.05117068865053869</v>
       </c>
     </row>
     <row r="21">
@@ -3599,19 +3599,19 @@
         <v>36462</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>26155</v>
+        <v>24520</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>51909</v>
+        <v>51011</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06577618817681484</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04718252560760389</v>
+        <v>0.0442336187424816</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09364194947798118</v>
+        <v>0.09202254635337376</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>42</v>
@@ -3620,19 +3620,19 @@
         <v>44750</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32889</v>
+        <v>32228</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>60900</v>
+        <v>59312</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06048814154987144</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04445515284517298</v>
+        <v>0.04356213246853584</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08231660028807551</v>
+        <v>0.08017008381508438</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>72</v>
@@ -3641,19 +3641,19 @@
         <v>81212</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>64653</v>
+        <v>63937</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>102400</v>
+        <v>102585</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06275320560396173</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04995748151668719</v>
+        <v>0.04940415251659345</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07912480918766444</v>
+        <v>0.07926808447063952</v>
       </c>
     </row>
     <row r="22">
@@ -3670,19 +3670,19 @@
         <v>498663</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>483317</v>
+        <v>482025</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>512833</v>
+        <v>511832</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8995711321435462</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.871886891589397</v>
+        <v>0.8695570199066353</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9251330579290169</v>
+        <v>0.9233271352067087</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>621</v>
@@ -3691,19 +3691,19 @@
         <v>663676</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>645638</v>
+        <v>646398</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>679034</v>
+        <v>679346</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.897075818880523</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8726948604878371</v>
+        <v>0.8737215080042128</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9178353704919122</v>
+        <v>0.9182577758699221</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1072</v>
@@ -3712,19 +3712,19 @@
         <v>1162338</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1133961</v>
+        <v>1134122</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1182913</v>
+        <v>1184568</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8981446529462006</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8762173761766937</v>
+        <v>0.876342000029849</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9140427060294642</v>
+        <v>0.9153215823502793</v>
       </c>
     </row>
     <row r="23">
@@ -4056,19 +4056,19 @@
         <v>4175</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1621</v>
+        <v>1596</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9349</v>
+        <v>9338</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02508327417370674</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009741405061650249</v>
+        <v>0.009586980572293831</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05616305223221028</v>
+        <v>0.05609968123570062</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4077,19 +4077,19 @@
         <v>4911</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11867</v>
+        <v>12266</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01886093633598127</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004866647672364652</v>
+        <v>0.004882749864353705</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04557715526886663</v>
+        <v>0.04710686291493612</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -4098,19 +4098,19 @@
         <v>9086</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4267</v>
+        <v>4340</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17245</v>
+        <v>16951</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02128749998333027</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009995911589503144</v>
+        <v>0.01016852333992581</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04040141742639139</v>
+        <v>0.03971422913295171</v>
       </c>
     </row>
     <row r="5">
@@ -4127,19 +4127,19 @@
         <v>5143</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1748</v>
+        <v>1731</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10211</v>
+        <v>10492</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03089816258079473</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01050426933748649</v>
+        <v>0.01039639937621415</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06134617607594941</v>
+        <v>0.06303053594730905</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -4148,19 +4148,19 @@
         <v>20282</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11957</v>
+        <v>11674</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30893</v>
+        <v>30394</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07789592322168057</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04592253165471693</v>
+        <v>0.04483397303405359</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1186471376373173</v>
+        <v>0.1167307523122677</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -4169,19 +4169,19 @@
         <v>25425</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17132</v>
+        <v>16306</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38540</v>
+        <v>37159</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05956791525230443</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04013834028263342</v>
+        <v>0.03820204498057914</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0902935391172844</v>
+        <v>0.08705724552045715</v>
       </c>
     </row>
     <row r="6">
@@ -4198,19 +4198,19 @@
         <v>157136</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>150782</v>
+        <v>150060</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>161483</v>
+        <v>161349</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9440185632454985</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9058505061328744</v>
+        <v>0.9015116468912268</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9701350173898327</v>
+        <v>0.9693302314651842</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>200</v>
@@ -4219,19 +4219,19 @@
         <v>235185</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>223672</v>
+        <v>224052</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>244397</v>
+        <v>245513</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9032431404423382</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8590281570296654</v>
+        <v>0.8604884019553128</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9386256822990168</v>
+        <v>0.9429083345700905</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>365</v>
@@ -4240,19 +4240,19 @@
         <v>392320</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>378997</v>
+        <v>378306</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>402259</v>
+        <v>403308</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9191445847643653</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8879311086967934</v>
+        <v>0.8863107229567398</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9424293517324157</v>
+        <v>0.9448869461645171</v>
       </c>
     </row>
     <row r="7">
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5471</v>
+        <v>6238</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01042182777243855</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03222471044043847</v>
+        <v>0.03674747182162296</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10630</v>
+        <v>8514</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01092947142421666</v>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04814409316112762</v>
+        <v>0.03855846304783653</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         <v>1036</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9751</v>
+        <v>10686</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01070882042756158</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002652495211792633</v>
+        <v>0.002653010682674821</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02496636830194681</v>
+        <v>0.02736011857087846</v>
       </c>
     </row>
     <row r="9">
@@ -4415,19 +4415,19 @@
         <v>4070</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1614</v>
+        <v>1577</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9016</v>
+        <v>9092</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02397301673973796</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009505104626146918</v>
+        <v>0.009286982926993145</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05310659282437956</v>
+        <v>0.05355882598243274</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -4436,19 +4436,19 @@
         <v>11686</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5548</v>
+        <v>5445</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20529</v>
+        <v>20875</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05292349376029033</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02512636019349231</v>
+        <v>0.02465837754524123</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09297563373612144</v>
+        <v>0.09453836006285364</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -4457,19 +4457,19 @@
         <v>15755</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9278</v>
+        <v>8903</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27364</v>
+        <v>25800</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04033995886164631</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02375592692235984</v>
+        <v>0.02279525139173834</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07006255610951634</v>
+        <v>0.06605798927876427</v>
       </c>
     </row>
     <row r="10">
@@ -4486,19 +4486,19 @@
         <v>163924</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>157535</v>
+        <v>158122</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>167126</v>
+        <v>167312</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9656051554878234</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9279677942231371</v>
+        <v>0.9314274894523389</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9844684116841151</v>
+        <v>0.9855615876231931</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>177</v>
@@ -4507,19 +4507,19 @@
         <v>206706</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>196374</v>
+        <v>196578</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>213278</v>
+        <v>213200</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.936147034815493</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8893548470903195</v>
+        <v>0.8902769559956162</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9659101693606501</v>
+        <v>0.9655571979157861</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>353</v>
@@ -4528,19 +4528,19 @@
         <v>370630</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>359044</v>
+        <v>359999</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>378526</v>
+        <v>378586</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9489512207107921</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.919286670802</v>
+        <v>0.9217327827149993</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9691682792907763</v>
+        <v>0.9693207122529295</v>
       </c>
     </row>
     <row r="11">
@@ -4632,19 +4632,19 @@
         <v>2796</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8342</v>
+        <v>7499</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01794766332447563</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004997032195849166</v>
+        <v>0.005074080473280992</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05355541072398901</v>
+        <v>0.04813995538994711</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -4653,19 +4653,19 @@
         <v>8144</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3372</v>
+        <v>3321</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16391</v>
+        <v>16961</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04423610899026907</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01831363986810154</v>
+        <v>0.01803933695052323</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08903201325993909</v>
+        <v>0.09212589351376907</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -4674,19 +4674,19 @@
         <v>10940</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4718</v>
+        <v>5424</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20483</v>
+        <v>20215</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03218768543496411</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01388206620550916</v>
+        <v>0.01595929411814157</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0602668373529217</v>
+        <v>0.05947635365448081</v>
       </c>
     </row>
     <row r="13">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6663</v>
+        <v>7499</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01314016210514332</v>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04277315484491934</v>
+        <v>0.04813820404268234</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -4724,19 +4724,19 @@
         <v>4614</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10751</v>
+        <v>11077</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02505959459352598</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006562826960369104</v>
+        <v>0.006596340931602328</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05839685839566751</v>
+        <v>0.06016623669676711</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -4745,19 +4745,19 @@
         <v>6660</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2344</v>
+        <v>2757</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14445</v>
+        <v>14095</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01959672421371639</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006897442747094447</v>
+        <v>0.008110908459468068</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04250180703395615</v>
+        <v>0.04147152631252347</v>
       </c>
     </row>
     <row r="14">
@@ -4774,19 +4774,19 @@
         <v>150928</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>145158</v>
+        <v>144976</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>154157</v>
+        <v>153944</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.968912174570381</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9318695856485123</v>
+        <v>0.9307008768586215</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9896389475640951</v>
+        <v>0.9882739800451815</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>143</v>
@@ -4795,19 +4795,19 @@
         <v>171348</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>162059</v>
+        <v>161810</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>177593</v>
+        <v>177999</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.930704296416205</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8802502440408763</v>
+        <v>0.8788963087033739</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9646249777292857</v>
+        <v>0.9668267400491386</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>303</v>
@@ -4816,19 +4816,19 @@
         <v>322277</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>311442</v>
+        <v>311595</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>330066</v>
+        <v>329482</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9482155903513195</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9163361135709633</v>
+        <v>0.9167877980188704</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9711329050089977</v>
+        <v>0.9694148483493826</v>
       </c>
     </row>
     <row r="15">
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4351</v>
+        <v>3492</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009511201792993496</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04947694020440194</v>
+        <v>0.03970738009046598</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4000</v>
+        <v>4202</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004301003505073074</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02056761064807659</v>
+        <v>0.02160375681075822</v>
       </c>
     </row>
     <row r="17">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6725</v>
+        <v>6501</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02191865872969213</v>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07646399269574575</v>
+        <v>0.07391706386540441</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -5004,19 +5004,19 @@
         <v>4892</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11217</v>
+        <v>12021</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04591782597122777</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01174864369901031</v>
+        <v>0.0118118547622027</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.105293045393941</v>
+        <v>0.112834095658551</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -5025,19 +5025,19 @@
         <v>6820</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2483</v>
+        <v>3055</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14183</v>
+        <v>14933</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03506530652403047</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01276478656899843</v>
+        <v>0.01570758785084366</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07292927489627847</v>
+        <v>0.07678252014939083</v>
       </c>
     </row>
     <row r="18">
@@ -5054,19 +5054,19 @@
         <v>85181</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80009</v>
+        <v>80205</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>87107</v>
+        <v>87127</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9685701394773144</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9097588369963528</v>
+        <v>0.9119874530501731</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9904736188800254</v>
+        <v>0.9907005603482962</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>84</v>
@@ -5075,19 +5075,19 @@
         <v>101644</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>95319</v>
+        <v>94515</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>105284</v>
+        <v>105278</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9540821740287723</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8947069546060591</v>
+        <v>0.8871659043414496</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9882513563009897</v>
+        <v>0.9881881452377973</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>173</v>
@@ -5096,19 +5096,19 @@
         <v>186825</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>178910</v>
+        <v>179033</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>191000</v>
+        <v>191092</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9606336899708965</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9199344523911991</v>
+        <v>0.9205658329170315</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9820985914971844</v>
+        <v>0.9825744468722341</v>
       </c>
     </row>
     <row r="19">
@@ -5200,19 +5200,19 @@
         <v>9577</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5064</v>
+        <v>4778</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16155</v>
+        <v>16491</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01651335549330841</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008731441730152313</v>
+        <v>0.008238535332720584</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02785582485892181</v>
+        <v>0.02843534875768344</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -5221,19 +5221,19 @@
         <v>15468</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8532</v>
+        <v>8405</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26184</v>
+        <v>27176</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02004131514935545</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01105435344765681</v>
+        <v>0.01088916198616273</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03392545396486029</v>
+        <v>0.03520974663990533</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -5242,19 +5242,19 @@
         <v>25045</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>15903</v>
+        <v>16275</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36426</v>
+        <v>38114</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01852774310972977</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01176451195229473</v>
+        <v>0.01203959891392432</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02694712999876761</v>
+        <v>0.02819574829544466</v>
       </c>
     </row>
     <row r="21">
@@ -5271,19 +5271,19 @@
         <v>13187</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7423</v>
+        <v>7629</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20435</v>
+        <v>20688</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0227394300654183</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01280016014459695</v>
+        <v>0.01315465166545526</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03523756848850464</v>
+        <v>0.03567326293919541</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>34</v>
@@ -5292,19 +5292,19 @@
         <v>41474</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>29652</v>
+        <v>28986</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>56611</v>
+        <v>55842</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05373455108508082</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03841790890723238</v>
+        <v>0.03755523607000415</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07334762945441141</v>
+        <v>0.07235029180178013</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>49</v>
@@ -5313,19 +5313,19 @@
         <v>54661</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>40894</v>
+        <v>42322</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>72619</v>
+        <v>72772</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04043696462890795</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03025211445684423</v>
+        <v>0.03130918926777485</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05372160233818371</v>
+        <v>0.05383496379826199</v>
       </c>
     </row>
     <row r="22">
@@ -5342,19 +5342,19 @@
         <v>557170</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>546834</v>
+        <v>547674</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>564153</v>
+        <v>564661</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9607472144412733</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9429241585709123</v>
+        <v>0.9443724544973621</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9727878079836956</v>
+        <v>0.9736640824779167</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>604</v>
@@ -5363,19 +5363,19 @@
         <v>714882</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>697765</v>
+        <v>697145</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>729756</v>
+        <v>728449</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9262241337655638</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.904046324257617</v>
+        <v>0.9032429093108061</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.945495987182122</v>
+        <v>0.9438016959581982</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1194</v>
@@ -5384,19 +5384,19 @@
         <v>1272052</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1250009</v>
+        <v>1250682</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1288409</v>
+        <v>1288462</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9410352922613623</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.924728443180417</v>
+        <v>0.9252262988308665</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9531357311583909</v>
+        <v>0.9531753857689631</v>
       </c>
     </row>
     <row r="23">
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3111</v>
+        <v>3087</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009065218702050177</v>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04624890483697006</v>
+        <v>0.04589191761354418</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -5749,19 +5749,19 @@
         <v>3254</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1208</v>
+        <v>1237</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7321</v>
+        <v>7224</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02275605692447127</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008443972853960469</v>
+        <v>0.008650166725276642</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05119144505560174</v>
+        <v>0.05051500808948865</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -5770,19 +5770,19 @@
         <v>3864</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1628</v>
+        <v>1468</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8340</v>
+        <v>7907</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01837600866320546</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007743461563354303</v>
+        <v>0.006982185664433933</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03966145058440571</v>
+        <v>0.0375985660410797</v>
       </c>
     </row>
     <row r="5">
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3005</v>
+        <v>3252</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01336649089981669</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04466866599624629</v>
+        <v>0.04833567066817586</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -5820,19 +5820,19 @@
         <v>7063</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3760</v>
+        <v>3988</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11735</v>
+        <v>11862</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04938463282806203</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02628909988130498</v>
+        <v>0.0278873585072486</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08205354863736074</v>
+        <v>0.08294201439974933</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -5841,19 +5841,19 @@
         <v>7962</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4549</v>
+        <v>4467</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13082</v>
+        <v>13013</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03786151076907261</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02163215630780434</v>
+        <v>0.02124102779350735</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06221063430731085</v>
+        <v>0.06188236898772974</v>
       </c>
     </row>
     <row r="6">
@@ -5870,19 +5870,19 @@
         <v>65768</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>63041</v>
+        <v>63234</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66869</v>
+        <v>66882</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9775682903981333</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9370310454656148</v>
+        <v>0.9398988607813009</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9939355740374149</v>
+        <v>0.9941310565093406</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>247</v>
@@ -5891,19 +5891,19 @@
         <v>132696</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>127108</v>
+        <v>127663</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>136414</v>
+        <v>136655</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9278593102474666</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8887845993282106</v>
+        <v>0.8926700862221791</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9538602783318283</v>
+        <v>0.9555445129280414</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>338</v>
@@ -5912,19 +5912,19 @@
         <v>198464</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>192561</v>
+        <v>192488</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>202755</v>
+        <v>202729</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9437624805677218</v>
+        <v>0.9437624805677221</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9156942646090541</v>
+        <v>0.9153460966734215</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.964169992717829</v>
+        <v>0.964046215960574</v>
       </c>
     </row>
     <row r="7">
@@ -6016,19 +6016,19 @@
         <v>3406</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6884</v>
+        <v>7129</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01691975586116084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007399580353563013</v>
+        <v>0.007398600268288742</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03419687326811092</v>
+        <v>0.03541315621088919</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -6037,19 +6037,19 @@
         <v>7724</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4310</v>
+        <v>4430</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12589</v>
+        <v>13254</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0255472684276315</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01425474522329817</v>
+        <v>0.0146509475960764</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0416396293067075</v>
+        <v>0.04383988849386099</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -6058,19 +6058,19 @@
         <v>11130</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6825</v>
+        <v>7265</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>16476</v>
+        <v>16735</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.0220988710673144</v>
+        <v>0.02209887106731441</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01355174501505592</v>
+        <v>0.01442400070170502</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0327130114242965</v>
+        <v>0.03322825262797746</v>
       </c>
     </row>
     <row r="9">
@@ -6087,19 +6087,19 @@
         <v>4698</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1892</v>
+        <v>2311</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10082</v>
+        <v>11076</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02333625621199744</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009398797462524918</v>
+        <v>0.01147843141471947</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05008399862195016</v>
+        <v>0.05501878331578126</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -6108,19 +6108,19 @@
         <v>16634</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11195</v>
+        <v>11201</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23057</v>
+        <v>22769</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.05501871341300631</v>
+        <v>0.05501871341300632</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03702673938421912</v>
+        <v>0.0370474126361292</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07626340005666588</v>
+        <v>0.07531046514933266</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>37</v>
@@ -6129,19 +6129,19 @@
         <v>21332</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14751</v>
+        <v>14837</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28957</v>
+        <v>29442</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04235530655748761</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02928920234189241</v>
+        <v>0.02945905198067836</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05749626999987718</v>
+        <v>0.05845852851965297</v>
       </c>
     </row>
     <row r="10">
@@ -6158,19 +6158,19 @@
         <v>193200</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>186969</v>
+        <v>187051</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>196685</v>
+        <v>196694</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9597439879268417</v>
+        <v>0.9597439879268419</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9287890155026344</v>
+        <v>0.9291963320837029</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9770552748978024</v>
+        <v>0.9770993888836642</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>523</v>
@@ -6179,19 +6179,19 @@
         <v>277979</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>270109</v>
+        <v>270086</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>284841</v>
+        <v>284388</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9194340181593623</v>
+        <v>0.9194340181593622</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8934048968072256</v>
+        <v>0.8933276855183716</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9421318010250043</v>
+        <v>0.9406309210406917</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>804</v>
@@ -6200,19 +6200,19 @@
         <v>471179</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>461706</v>
+        <v>461831</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>479059</v>
+        <v>479973</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.935545822375198</v>
+        <v>0.9355458223751981</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9167354994902527</v>
+        <v>0.9169835991373056</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9511921352314728</v>
+        <v>0.9530068729272946</v>
       </c>
     </row>
     <row r="11">
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3123</v>
+        <v>3374</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.00232501955745284</v>
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01362069524058354</v>
+        <v>0.01471555662190682</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -6325,19 +6325,19 @@
         <v>8337</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4573</v>
+        <v>4254</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15151</v>
+        <v>14422</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03525212776186775</v>
+        <v>0.03525212776186776</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01933430380644451</v>
+        <v>0.01798872909777598</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06406220562516871</v>
+        <v>0.06097676679010237</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -6346,19 +6346,19 @@
         <v>8871</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4932</v>
+        <v>4888</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14979</v>
+        <v>14776</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01904284353662712</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01058716047435214</v>
+        <v>0.01049314338978499</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03215675701057571</v>
+        <v>0.03171954548473283</v>
       </c>
     </row>
     <row r="13">
@@ -6375,19 +6375,19 @@
         <v>6504</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3094</v>
+        <v>3162</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11721</v>
+        <v>12102</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02836422494273118</v>
+        <v>0.02836422494273119</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0134945579000071</v>
+        <v>0.01379022523083237</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05111430462129416</v>
+        <v>0.0527740398954825</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -6396,19 +6396,19 @@
         <v>9701</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5624</v>
+        <v>5590</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14879</v>
+        <v>15610</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.041016224697139</v>
+        <v>0.04101622469713901</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02377836863936947</v>
+        <v>0.02363582249078083</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06291193910427258</v>
+        <v>0.06600166346526015</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -6417,19 +6417,19 @@
         <v>16205</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10500</v>
+        <v>11118</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22341</v>
+        <v>24054</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03478792615468231</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02254054962098071</v>
+        <v>0.02386718615443172</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04795999914867465</v>
+        <v>0.05163797606971536</v>
       </c>
     </row>
     <row r="14">
@@ -6446,19 +6446,19 @@
         <v>222277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>216879</v>
+        <v>216797</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>225758</v>
+        <v>225731</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9693107554998159</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9457751389388891</v>
+        <v>0.9454150051058519</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9844943258191672</v>
+        <v>0.9843736189281727</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>418</v>
@@ -6467,19 +6467,19 @@
         <v>218471</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>211547</v>
+        <v>211397</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>224219</v>
+        <v>224745</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9237316475409934</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8944560365178215</v>
+        <v>0.8938215032496825</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.948033956641559</v>
+        <v>0.9502586386262368</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>735</v>
@@ -6488,19 +6488,19 @@
         <v>440747</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>431941</v>
+        <v>431717</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>447577</v>
+        <v>448049</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9461692303086905</v>
+        <v>0.9461692303086904</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9272634869815686</v>
+        <v>0.9267837197571422</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9608309612318319</v>
+        <v>0.9618429618765418</v>
       </c>
     </row>
     <row r="15">
@@ -6592,19 +6592,19 @@
         <v>2122</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5794</v>
+        <v>5457</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009971921372301837</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002585274328802671</v>
+        <v>0.002593725074294762</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0272226108327692</v>
+        <v>0.02563770863137323</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -6613,19 +6613,19 @@
         <v>5048</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2173</v>
+        <v>2376</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9352</v>
+        <v>8814</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02433046015513075</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01047377342283984</v>
+        <v>0.01145215003135662</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0450787109539437</v>
+        <v>0.04248496063883418</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -6634,19 +6634,19 @@
         <v>7170</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3587</v>
+        <v>3532</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12273</v>
+        <v>11976</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01705937985733688</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008534791492391093</v>
+        <v>0.008402471536585436</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02920029020962744</v>
+        <v>0.02849332815943097</v>
       </c>
     </row>
     <row r="17">
@@ -6663,19 +6663,19 @@
         <v>3209</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1040</v>
+        <v>999</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7133</v>
+        <v>7365</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01507452473644246</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004885064249675636</v>
+        <v>0.004693381421704236</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03351360588101653</v>
+        <v>0.03460119288045627</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -6684,19 +6684,19 @@
         <v>9002</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5303</v>
+        <v>5053</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15510</v>
+        <v>15717</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04338869015722299</v>
+        <v>0.043388690157223</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02555795725407595</v>
+        <v>0.02435411525752389</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07475764332137293</v>
+        <v>0.07575713086148379</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -6705,19 +6705,19 @@
         <v>12210</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7836</v>
+        <v>7917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19655</v>
+        <v>19804</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.029050561921938</v>
+        <v>0.02905056192193799</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01864301977782611</v>
+        <v>0.01883509866023576</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04676329788419284</v>
+        <v>0.04711583405854682</v>
       </c>
     </row>
     <row r="18">
@@ -6734,19 +6734,19 @@
         <v>207515</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>202839</v>
+        <v>202902</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>210601</v>
+        <v>210578</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9749535538912557</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9529871262384929</v>
+        <v>0.9532804513281504</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9894522346017535</v>
+        <v>0.9893421697490564</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>368</v>
@@ -6755,19 +6755,19 @@
         <v>193420</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>185892</v>
+        <v>186435</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>198192</v>
+        <v>198429</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9322808496876461</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8959969823624477</v>
+        <v>0.8986108679039003</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9552804685761767</v>
+        <v>0.9564206876711797</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>662</v>
@@ -6776,19 +6776,19 @@
         <v>400935</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>392497</v>
+        <v>393180</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>406703</v>
+        <v>406481</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.9538900582207251</v>
+        <v>0.953890058220725</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9338150703290584</v>
+        <v>0.9354386118325853</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9676131556428699</v>
+        <v>0.9670854723145943</v>
       </c>
     </row>
     <row r="19">
@@ -6880,19 +6880,19 @@
         <v>6672</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3509</v>
+        <v>3251</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11513</v>
+        <v>11587</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009386733087986203</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004936912804645803</v>
+        <v>0.004573933052740473</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01619806152270228</v>
+        <v>0.0163028496383306</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>44</v>
@@ -6901,19 +6901,19 @@
         <v>24364</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17753</v>
+        <v>17623</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32953</v>
+        <v>31991</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02739546568284047</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01996256819691826</v>
+        <v>0.01981590801916696</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03705322996751049</v>
+        <v>0.03597248763359066</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>56</v>
@@ -6922,19 +6922,19 @@
         <v>31035</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23603</v>
+        <v>23441</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>41016</v>
+        <v>40306</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01939609728821024</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01475138750214266</v>
+        <v>0.01465015039314915</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02563394047846989</v>
+        <v>0.02519031321052819</v>
       </c>
     </row>
     <row r="21">
@@ -6951,19 +6951,19 @@
         <v>15310</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10011</v>
+        <v>9846</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>23657</v>
+        <v>23047</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02154063358568897</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01408585411816238</v>
+        <v>0.01385302934007066</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0332848013731411</v>
+        <v>0.03242615948687635</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>78</v>
@@ -6972,19 +6972,19 @@
         <v>42399</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33136</v>
+        <v>33266</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>52283</v>
+        <v>52818</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0476757108256835</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03725908084680208</v>
+        <v>0.03740544273720731</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05878931367580958</v>
+        <v>0.05939040940515331</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>103</v>
@@ -6993,19 +6993,19 @@
         <v>57709</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>47878</v>
+        <v>47029</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>71112</v>
+        <v>69664</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03606667005817446</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0299226782509583</v>
+        <v>0.02939182989468507</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04444275955845083</v>
+        <v>0.0435377908360923</v>
       </c>
     </row>
     <row r="22">
@@ -7022,19 +7022,19 @@
         <v>688760</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>679628</v>
+        <v>680810</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>695245</v>
+        <v>695054</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9690726333263249</v>
+        <v>0.969072633326325</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9562252027767941</v>
+        <v>0.9578882282691277</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.978196702425621</v>
+        <v>0.9779290954277818</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1556</v>
@@ -7043,19 +7043,19 @@
         <v>822566</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>809188</v>
+        <v>808591</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>833911</v>
+        <v>834027</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9249288234914762</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9098857501999634</v>
+        <v>0.9092149543816672</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9376859136573493</v>
+        <v>0.9378164823842063</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2539</v>
@@ -7064,19 +7064,19 @@
         <v>1511326</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1495398</v>
+        <v>1497856</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1523553</v>
+        <v>1525291</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9445372326536152</v>
+        <v>0.9445372326536153</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9345831328180969</v>
+        <v>0.936119060901189</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9521791262232867</v>
+        <v>0.9532652350792258</v>
       </c>
     </row>
     <row r="23">
